--- a/Tabela/Cabo Frio/Cabo Frio-8.xlsx
+++ b/Tabela/Cabo Frio/Cabo Frio-8.xlsx
@@ -14,327 +14,378 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="124">
+  <si>
+    <t>3</t>
+  </si>
   <si>
     <t>Mensagem</t>
   </si>
   <si>
-    <t>3 quartos co...</t>
+    <t>pronto para morar</t>
   </si>
   <si>
     <t>super destaque</t>
   </si>
   <si>
-    <t>R$ 360.000</t>
-  </si>
-  <si>
-    <t>R$ 105.000</t>
-  </si>
-  <si>
-    <t>R$ 189.999</t>
-  </si>
-  <si>
-    <t>R$ 160.000</t>
-  </si>
-  <si>
-    <t>R$ 280.000</t>
-  </si>
-  <si>
-    <t>R$ 249.999</t>
+    <t>R$ 130.000</t>
+  </si>
+  <si>
+    <t>R$ 200.000</t>
+  </si>
+  <si>
+    <t>R$ 115.000</t>
+  </si>
+  <si>
+    <t>R$ 170.000</t>
+  </si>
+  <si>
+    <t>R$ 135.000</t>
+  </si>
+  <si>
+    <t>R$ 175.000</t>
+  </si>
+  <si>
+    <t>destaque</t>
+  </si>
+  <si>
+    <t>R$ 215.000</t>
+  </si>
+  <si>
+    <t>R$ 350.000</t>
+  </si>
+  <si>
+    <t>R$ 400.000</t>
   </si>
   <si>
     <t>R$ 190.000</t>
   </si>
   <si>
-    <t>R$ 120.000</t>
-  </si>
-  <si>
-    <t>R$ 350.000</t>
-  </si>
-  <si>
-    <t>R$ 159.999</t>
+    <t>R$ 178.001</t>
+  </si>
+  <si>
+    <t>R$ 380.000</t>
+  </si>
+  <si>
+    <t>R$ 3.200.000</t>
+  </si>
+  <si>
+    <t>R$ 270.000</t>
   </si>
   <si>
     <t>R$ 125.000</t>
   </si>
   <si>
-    <t>R$ 140.000</t>
-  </si>
-  <si>
-    <t>R$ 115.000</t>
-  </si>
-  <si>
-    <t>R$ 178.000</t>
+    <t>A Imobiliária Confiança Oferece uma Excelente Oportunidade!!</t>
+  </si>
+  <si>
+    <t>deixe seu numero nossa equipe entrará em contato com você!</t>
+  </si>
+  <si>
+    <t>Realize o Seu sonho da Sua Casa de Praia</t>
+  </si>
+  <si>
+    <t>R$ 240.000</t>
+  </si>
+  <si>
+    <t>Sua oportunidade de morar na região dos Lago está na aqui IMOBILIÁRIA CONFIANÇA.</t>
+  </si>
+  <si>
+    <t>Sua oportunidade de morar na região dos Lago está aqui na IMOBILIÁRIA CONFIANÇA.</t>
+  </si>
+  <si>
+    <t>M.CARVALHO IMOVEIS VENDE</t>
+  </si>
+  <si>
+    <t>Imóvel Localizado a 50 m² da Rodovia em Unamar - Região dos lagos Por 215 mil só a vista .</t>
+  </si>
+  <si>
+    <t>A casa está localizado no bairro Aquarius (Tamoios) com 150 metros quadrados com 4 quartos sendo 2 suites e 3 banheiros</t>
+  </si>
+  <si>
+    <t>Vocês não imaginam o que uma bela vista pode proporcionar.</t>
   </si>
   <si>
     <t>R$ 210.000</t>
   </si>
   <si>
-    <t>R$ 329.900</t>
+    <t>Linda Casa em Tamoios 2⁰ Distrito de Cabo Frio</t>
+  </si>
+  <si>
+    <t>R$ 239.000</t>
+  </si>
+  <si>
+    <t>Já imaginou ter sua casa de praia nesse padrão ?</t>
+  </si>
+  <si>
+    <t>TBF- Venha conquistar este duplex localizado em condomínio de alto padrão Long beach próximo à praia.</t>
+  </si>
+  <si>
+    <t>Casa Pronta - Unamar Distrito de Cabo Frio</t>
+  </si>
+  <si>
+    <t>TBF- Já imaginou ter sua casa de praia nesse padrão ?</t>
+  </si>
+  <si>
+    <t>Edifício Murano Na Praia da Costa/ES - Porteira Fechada!</t>
+  </si>
+  <si>
+    <t>Linda casa pronta para morar com 2 quartos, área gourmet e piscina em Unamar - Cabo Frio - RJ</t>
+  </si>
+  <si>
+    <t>Linda casa 2 quartos, piscina e área gourmet em Unamar, Tamoios - Cabo Frio - RJ</t>
+  </si>
+  <si>
+    <t>.Casa linear em condomínio fechado, composta por 2 quartos sendo 1 suite, sala, cozinha, banheiro social, área de serviço, área gourmet com Piscina. -Construção nova -Fino acabamen...</t>
+  </si>
+  <si>
+    <t>Linda casa de 2 quartos sendo 1 suíte, com piscina e área gourmet em Unamar - Cabo Frio - RJ</t>
+  </si>
+  <si>
+    <t>Vai lhe possibilitar todo o conforto do ar condicionado n...</t>
+  </si>
+  <si>
+    <t>Traz paz, tranquilidade, satisfação e muita alegria.</t>
+  </si>
+  <si>
+    <t>CA 2392</t>
+  </si>
+  <si>
+    <t>Linda casa com 2 quartos, área gourmet e piscina em Unamar - Cabo Frio - RJ</t>
+  </si>
+  <si>
+    <t>Aqui em UNAMAR- CABO FRIO, temos os melhores Empreendimentos com o melhor Custo e Benefício pra você e sua Família .</t>
+  </si>
+  <si>
+    <t>O apartamento está localizado no bairro Itapuã com 240 metros quadrados com 4 quartos sendo 4 suites e 2 banheiros</t>
   </si>
   <si>
     <t>mais</t>
   </si>
   <si>
-    <t>R$ 790.000</t>
-  </si>
-  <si>
-    <t>R$ 99.999</t>
-  </si>
-  <si>
-    <t>R$ 245.000</t>
-  </si>
-  <si>
-    <t>A casa no bairro Santa Margarida I (Tamoios) possui 150 metros quadrados com 3 quartos sendo 2 suites e 3 banheiros</t>
-  </si>
-  <si>
-    <t>IPTU R$ 150</t>
-  </si>
-  <si>
-    <t>Casa de 2 quartos com área gourmet e piscina em Unamar, Tamoios - Cabo Frio - RJ</t>
-  </si>
-  <si>
-    <t>Belíssima Casa com Piscina em Unamar pronta para morar.</t>
-  </si>
-  <si>
-    <t>Duplex, localizado em Unamar.</t>
-  </si>
-  <si>
-    <t>M.CARVALHO IMOVEIS VENDE</t>
-  </si>
-  <si>
-    <t>Linda casa 2 quartos com área gourmet e piscina em Unamar, Tamoios - Cabo Frio - RJ</t>
-  </si>
-  <si>
-    <t>IPTU R$ 423</t>
+    <t>Casa novinha em condomínio com piscina no valor de 130 mil .</t>
+  </si>
+  <si>
+    <t>Valor de R$200 mil Avista, ou entrada de 60% + parcelas de R$1.500</t>
+  </si>
+  <si>
+    <t>Cresci RJ-008451/O</t>
+  </si>
+  <si>
+    <t>Excelente Casa na Região Dos Lagos.</t>
+  </si>
+  <si>
+    <t>Linda casa em Tamoios 2⁰ distrito de Cabo Frio</t>
+  </si>
+  <si>
+    <t>RESIDENCIAL GRAVATÁ, OPORTUNIDADE UNICA......... IMÓVEL LUXO, ALTO PADRÃO, OTIMA LOCALIZAÇÃO A 15 MINUTOS DA PRAIA, COMERCIO PERTINHO, TRANSPORTE,...</t>
+  </si>
+  <si>
+    <t>Imóvel constituído por:</t>
+  </si>
+  <si>
+    <t>Essa linda vista pode ser sua!!!</t>
+  </si>
+  <si>
+    <t>- Localização: Unamar - PRONTA ENTREGA</t>
+  </si>
+  <si>
+    <t>Valor de 380 Mil</t>
+  </si>
+  <si>
+    <t>Valor à vista 190 mil ou entrada + parcelas diretamente com o construtor.</t>
+  </si>
+  <si>
+    <t>Po...</t>
+  </si>
+  <si>
+    <t>Realize o sonho da sua casa da praia com a Jéssica Marques Corretora de Imóveis...</t>
   </si>
   <si>
     <t>Realize o sonho da sua casa da praia com a Jéssica Marques Corretora de Imóveis</t>
   </si>
   <si>
-    <t>REALIZE SEU SONHO DA CASA PRÓPRIA ! 🏠😍</t>
-  </si>
-  <si>
-    <t>✅𝙶𝚛𝚊𝚗𝚍𝚎 𝚘𝚙𝚘𝚝𝚞𝚗𝚒𝚍𝚊𝚍𝚎 !!✅😱🎉</t>
-  </si>
-  <si>
-    <t>CÓDIGO DO ANÚNCIO: CA0608.</t>
-  </si>
-  <si>
-    <t>Olá Cliente Tudo Bem ? Me chamo MARIANA sou atendente da imobiliária confiança e estou aqui para apresenta alguma das nossa opções de imóvel na região dos lagos - Cabo Frio/RJ.</t>
-  </si>
-  <si>
-    <t>Entre em contato em meu WhatsApp ou informe seu contato com ddd aqui neste site na opção "Contatar anunciante". Excelente imóveis na região Cabo Frio . A vista R$ 210 mil ou parcel...</t>
-  </si>
-  <si>
-    <t>Dúplex Pronta à Venda - Região Dos Lagos -Unamar- Cabo Frio/ RJ</t>
-  </si>
-  <si>
-    <t>Servidão Francisco Soares de Souza, Bento Ferreira</t>
-  </si>
-  <si>
-    <t>condomínio R$ 550 IPTU R$ 1.000</t>
-  </si>
-  <si>
-    <t>Linda casa de 2 quartos com área gourmet e piscina próximo à praia em Unamar, Tamoios - Cabo Frio - RJ</t>
-  </si>
-  <si>
-    <t>Casa para Venda no bairro Unamar (Tamoios), localizado na cidade de Cabo Frio / RJ, região Unamar, ponto de referência rua do DPO.</t>
-  </si>
-  <si>
-    <t>Composto por 2 quartos, sendo 1 suite, 2 banheiros, sala em 2 ambientes, cozinha americana , lavanderia, área gourmet com piscina.</t>
-  </si>
-  <si>
-    <t>A casa está localizada a 500 metros da praia do Peró, 5 minutos do shopping Moinho, 10 minutos da Praia das Conchas. Linha de onibus, Supermercado Tucano, farmácias e padaria muito...</t>
+    <t>Rua das Pacas, Nova California Tamoios</t>
+  </si>
+  <si>
+    <t>Imóvel com:</t>
+  </si>
+  <si>
+    <t>Realize o sonho da sua casa da praia com a Jéssica Marques Corretora de Imóveis&lt;...</t>
+  </si>
+  <si>
+    <t>2 Quartos sendo 1 Suíte</t>
+  </si>
+  <si>
+    <t>Avenida Beira-mar, Unamar</t>
+  </si>
+  <si>
+    <t>DESCRIÇÃO</t>
+  </si>
+  <si>
+    <t>Realize o sonho da casa própria com a Jéssica Marques Corretora de Imóveis</t>
+  </si>
+  <si>
+    <t>Val...</t>
+  </si>
+  <si>
+    <t>Avenida Independência, Unamar</t>
+  </si>
+  <si>
+    <t>CRECI/RJ:...</t>
+  </si>
+  <si>
+    <t>136 m²</t>
+  </si>
+  <si>
+    <t>deixei seu contato que te passo todas as inf...</t>
+  </si>
+  <si>
+    <t>2 quartos (sendo 1 suíte)</t>
+  </si>
+  <si>
+    <t>Ótima Oportunidade pra você adquirir seu Imóvel Novo, com uma condição especial !</t>
+  </si>
+  <si>
+    <t>- 2 Quartos, Sala, Cozinha Americana...</t>
+  </si>
+  <si>
+    <t>Sala</t>
+  </si>
+  <si>
+    <t>150 m²</t>
+  </si>
+  <si>
+    <t>Para mais informações...</t>
+  </si>
+  <si>
+    <t>- Dois quartos, sendo 1 suíte;</t>
   </si>
   <si>
     <t>CRECI/RJ: 075.292</t>
   </si>
   <si>
-    <t>R$ 160 mil (Unamar)🏝🏖</t>
-  </si>
-  <si>
-    <t>Vende-se , lindas casas localizadas no Condomínio Gravata ll em Unamar.</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>💢💢 CONDIÇÕES EXCLUSIVAS!!!💢💢</t>
+    <t>- Sem SPC</t>
+  </si>
+  <si>
+    <t>Casa composta por 2 quartos, sendo 1 suíte, Cozi...</t>
+  </si>
+  <si>
+    <t>56 m²</t>
+  </si>
+  <si>
+    <t>Avenida Antônio Gil Veloso, Itapuã</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>90 m²</t>
+  </si>
+  <si>
+    <t>Cozinha</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>- 02 quartos, suíte</t>
+  </si>
+  <si>
+    <t>- Banheiro social;</t>
+  </si>
+  <si>
+    <t>Avenida Independência, Sambura Tamoios</t>
+  </si>
+  <si>
+    <t>Aceitamos seu veículo como parte...</t>
+  </si>
+  <si>
+    <t>240 m²</t>
+  </si>
+  <si>
+    <t>155 m²</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>Rua Imperial, Nova California Tamoios</t>
+  </si>
+  <si>
+    <t>Unamar, Cabo Frio</t>
+  </si>
+  <si>
+    <t>Casa possui 2 q...</t>
+  </si>
+  <si>
+    <t>100 m²</t>
+  </si>
+  <si>
+    <t>Aquariús, Cabo Frio</t>
+  </si>
+  <si>
+    <t>área d...</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>- Sala ampla</t>
+  </si>
+  <si>
+    <t>- Sala, cozinha, área...</t>
+  </si>
+  <si>
+    <t>70 m²</t>
+  </si>
+  <si>
+    <t>50 m²</t>
+  </si>
+  <si>
+    <t>59 m²</t>
+  </si>
+  <si>
+    <t>60 m²</t>
   </si>
   <si>
     <t>75 m²</t>
   </si>
   <si>
-    <t>Lindo apartamento de frente, no Centro de Cabo Frio, a apenas 02 quadras da Praia do Forte. Imóvel totalmente mobiliado, com fino acabamento e de muito bom gosto. Possui espaçosa s...</t>
-  </si>
-  <si>
-    <t>Rua Santos Dumont, Unamar</t>
-  </si>
-  <si>
-    <t>Casa composta por:</t>
-  </si>
-  <si>
-    <t>SUA OPORTUNIDADE CHEGOU. CASA MARAVILHOSA, BEM LOCALIZADA EM AREA NOBRE, PERTINHO DA PRAIA DO CORAL ,COM COMERCIO PERTINHO, UNAPARK SHOPPING, ESCOLA...</t>
-  </si>
-  <si>
-    <t>SUA OPORTUNIDADE CHEGOU. CASA BEM LOCALIZADA PROXIMA A PRAIA DO PONTAL ,COM COMERCIO PERTINHO, ESCOLA, E PROXIMO DA PONTE DE BARRA DE SÃO JOÃO, IDEA...</t>
-  </si>
-  <si>
-    <t>Excelente Duplex, composto por:</t>
-  </si>
-  <si>
-    <t>Compostas por:</t>
-  </si>
-  <si>
-    <t>Jardim Esperanca, Cabo Frio</t>
-  </si>
-  <si>
-    <t>Dúplex no Condomínio Long Beach composto por;</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>Realize o sonho da casa própria com A.J. Sant?anna Corretor de Imóveis...</t>
-  </si>
-  <si>
-    <t>150 m²</t>
-  </si>
-  <si>
-    <t>Com 2 dormitórios, sendo 1 suíte, possui 1...</t>
-  </si>
-  <si>
-    <t>CRECI/RJ:...</t>
-  </si>
-  <si>
-    <t>▪︎2 quartos, sendo uma suíte.</t>
-  </si>
-  <si>
-    <t>Rua Orlando Bragança, Unamar</t>
-  </si>
-  <si>
-    <t>CRECI/...</t>
-  </si>
-  <si>
-    <t>Rua Anequim, Peró</t>
-  </si>
-  <si>
-    <t>Cód: JMC-035-2</t>
-  </si>
-  <si>
-    <t>✅2 amplas suites com sacada</t>
-  </si>
-  <si>
-    <t>✔ 2 quartos, sendo 1 suíte</t>
-  </si>
-  <si>
-    <t>MAGDALA FURTADO IMOBILIÁRIA VENDE :</t>
-  </si>
-  <si>
-    <t>Avenida Independência, Unamar</t>
-  </si>
-  <si>
-    <t>🏠CASA COMPOSTA POR 3 QUARTOS SENDO 2 SUÍTES, SALA COM 2 AMBIENTES, COZINHA, BANHEIRO SOCIAL, ÁREA GOURMET, COPA E VAGA PARA MAIS DE 1 CARRO...</t>
-  </si>
-  <si>
-    <t>Cód: JMC-016-1</t>
-  </si>
-  <si>
-    <t>200 m²</t>
-  </si>
-  <si>
-    <t>1 - 2</t>
-  </si>
-  <si>
-    <t>Rua Jorge Lossio, Centro</t>
-  </si>
-  <si>
-    <t>Cód: JMC-020</t>
-  </si>
-  <si>
-    <t>▪︎Área gourmet.</t>
-  </si>
-  <si>
-    <t>59 m²</t>
-  </si>
-  <si>
-    <t>✅sala com fino acabamento</t>
-  </si>
-  <si>
-    <t>✔ Sala</t>
-  </si>
-  <si>
-    <t>60 m²</t>
-  </si>
-  <si>
-    <t>3 Quartos (sendo 1 suíte com varanda)</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>90 m²</t>
-  </si>
-  <si>
-    <t>Unamar, Cabo Frio</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>▪︎Garagem com portão elétrico.</t>
+    <t>- Cozinha Americana;</t>
   </si>
   <si>
     <t>130 m²</t>
   </si>
   <si>
-    <t>70 m²</t>
-  </si>
-  <si>
-    <t>CASA COM 2 QUARTOS SENDO 1 SUÍTE, SALA COM COZINHA...</t>
-  </si>
-  <si>
-    <t>✅banheiro soc...</t>
-  </si>
-  <si>
-    <t>Casas com 2 quartos, sala, cozinha, 2 banheiros, área de serviço, varanda, qintal e vaga para 3 car...</t>
-  </si>
-  <si>
-    <t>CASA DE 2 QUARTOS SENDO 1 SUITE, SALA AMPLA, COZIN...</t>
-  </si>
-  <si>
-    <t>Sala Ampla</t>
-  </si>
-  <si>
-    <t>CASA COM 2 QUARTOS, SALA, COZINHA CONVENCIONAL, BANH...</t>
-  </si>
-  <si>
-    <t>86 m²</t>
-  </si>
-  <si>
-    <t>▪︎Cozinh...</t>
-  </si>
-  <si>
-    <t>71 m²</t>
-  </si>
-  <si>
-    <t>Avenida Gravatá, Nova California Tamoios</t>
-  </si>
-  <si>
-    <t>C...</t>
-  </si>
-  <si>
-    <t>125 m²</t>
-  </si>
-  <si>
-    <t>Rua Dez, Long Beach Tamoios</t>
-  </si>
-  <si>
-    <t>54 m²</t>
+    <t>5</t>
+  </si>
+  <si>
+    <t>ár...</t>
+  </si>
+  <si>
+    <t>- Banheiro social</t>
+  </si>
+  <si>
+    <t>Sambura Tamoios, Cabo Frio</t>
   </si>
   <si>
     <t>80 m²</t>
+  </si>
+  <si>
+    <t>58 m²</t>
+  </si>
+  <si>
+    <t>- Área de serviço coberta</t>
+  </si>
+  <si>
+    <t>- Varanda externa</t>
+  </si>
+  <si>
+    <t>- Estrutura...</t>
+  </si>
+  <si>
+    <t>81 m²</t>
   </si>
 </sst>
 </file>
@@ -692,13 +743,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P23"/>
+  <dimension ref="A1:U24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:21">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -744,844 +795,921 @@
       <c r="P1" s="1">
         <v>14</v>
       </c>
-    </row>
-    <row r="2" spans="1:16">
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1">
+        <v>18</v>
+      </c>
+      <c r="U1" s="1">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21">
       <c r="A2" s="1">
         <v>0</v>
       </c>
-      <c r="C2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E2" t="s">
-        <v>38</v>
-      </c>
-      <c r="F2" t="s">
-        <v>49</v>
-      </c>
-      <c r="G2" t="s">
-        <v>59</v>
-      </c>
-      <c r="H2" t="s">
-        <v>76</v>
-      </c>
-      <c r="I2" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16">
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C3" t="s">
         <v>2</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F3" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="G3" t="s">
-        <v>19</v>
+        <v>60</v>
       </c>
       <c r="H3" t="s">
-        <v>77</v>
+        <v>48</v>
       </c>
       <c r="I3" t="s">
         <v>86</v>
       </c>
       <c r="J3" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="K3" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="L3" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16">
+        <v>114</v>
+      </c>
+      <c r="M3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E4" t="s">
-        <v>31</v>
-      </c>
-      <c r="F4" t="s">
-        <v>44</v>
+        <v>38</v>
+      </c>
+      <c r="G4" t="s">
+        <v>61</v>
       </c>
       <c r="H4" t="s">
-        <v>78</v>
+        <v>48</v>
+      </c>
+      <c r="I4" t="s">
+        <v>71</v>
       </c>
       <c r="J4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="K4" t="s">
-        <v>19</v>
+        <v>87</v>
       </c>
       <c r="L4" t="s">
-        <v>72</v>
+        <v>87</v>
       </c>
       <c r="M4" t="s">
-        <v>105</v>
-      </c>
-      <c r="N4" t="s">
-        <v>88</v>
-      </c>
-      <c r="O4" t="s">
-        <v>88</v>
-      </c>
-      <c r="P4" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G5" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="H5" t="s">
-        <v>19</v>
+        <v>72</v>
       </c>
       <c r="I5" t="s">
-        <v>87</v>
+        <v>48</v>
       </c>
       <c r="J5" t="s">
-        <v>98</v>
+        <v>71</v>
       </c>
       <c r="K5" t="s">
-        <v>88</v>
+        <v>108</v>
       </c>
       <c r="L5" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="M5" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16">
+        <v>97</v>
+      </c>
+      <c r="N5" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C6" t="s">
         <v>3</v>
       </c>
       <c r="D6" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="E6" t="s">
-        <v>19</v>
+        <v>40</v>
       </c>
       <c r="F6" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="G6" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="H6" t="s">
-        <v>59</v>
+        <v>73</v>
       </c>
       <c r="I6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J6" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16">
+        <v>97</v>
+      </c>
+      <c r="K6" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C7" t="s">
         <v>4</v>
       </c>
       <c r="D7" t="s">
-        <v>24</v>
-      </c>
-      <c r="E7" t="s">
-        <v>41</v>
-      </c>
-      <c r="G7" t="s">
-        <v>62</v>
+        <v>20</v>
+      </c>
+      <c r="F7" t="s">
+        <v>49</v>
       </c>
       <c r="H7" t="s">
-        <v>19</v>
+        <v>74</v>
       </c>
       <c r="I7" t="s">
-        <v>65</v>
+        <v>48</v>
       </c>
       <c r="J7" t="s">
-        <v>83</v>
+        <v>98</v>
       </c>
       <c r="K7" t="s">
-        <v>88</v>
+        <v>109</v>
       </c>
       <c r="L7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="M7" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16">
+        <v>87</v>
+      </c>
+      <c r="N7" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C8" t="s">
         <v>5</v>
       </c>
       <c r="D8" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="F8" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="G8" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="H8" t="s">
-        <v>19</v>
+        <v>75</v>
       </c>
       <c r="I8" t="s">
-        <v>72</v>
+        <v>48</v>
       </c>
       <c r="J8" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="K8" t="s">
-        <v>88</v>
+        <v>107</v>
       </c>
       <c r="L8" t="s">
-        <v>59</v>
+        <v>87</v>
       </c>
       <c r="M8" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16">
+        <v>87</v>
+      </c>
+      <c r="N8" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C9" t="s">
         <v>6</v>
       </c>
       <c r="D9" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="F9" t="s">
-        <v>52</v>
-      </c>
-      <c r="G9" t="s">
-        <v>64</v>
+        <v>51</v>
       </c>
       <c r="H9" t="s">
-        <v>79</v>
-      </c>
-      <c r="I9" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="J9" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K9" t="s">
-        <v>19</v>
+        <v>48</v>
       </c>
       <c r="L9" t="s">
-        <v>87</v>
+        <v>71</v>
       </c>
       <c r="M9" t="s">
-        <v>61</v>
+        <v>119</v>
       </c>
       <c r="N9" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="O9" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="P9" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C10" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D10" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E10" t="s">
-        <v>42</v>
-      </c>
-      <c r="F10" t="s">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="G10" t="s">
         <v>65</v>
       </c>
       <c r="H10" t="s">
-        <v>75</v>
+        <v>48</v>
       </c>
       <c r="I10" t="s">
-        <v>88</v>
+        <v>71</v>
       </c>
       <c r="J10" t="s">
-        <v>85</v>
+        <v>101</v>
       </c>
       <c r="K10" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16">
+        <v>87</v>
+      </c>
+      <c r="L10" t="s">
+        <v>90</v>
+      </c>
+      <c r="M10" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C11" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D11" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="F11" t="s">
-        <v>53</v>
-      </c>
-      <c r="G11" t="s">
-        <v>19</v>
+        <v>52</v>
       </c>
       <c r="H11" t="s">
-        <v>72</v>
+        <v>31</v>
       </c>
       <c r="I11" t="s">
+        <v>48</v>
+      </c>
+      <c r="J11" t="s">
+        <v>102</v>
+      </c>
+      <c r="K11" t="s">
+        <v>107</v>
+      </c>
+      <c r="L11" t="s">
+        <v>87</v>
+      </c>
+      <c r="M11" t="s">
         <v>90</v>
       </c>
-      <c r="J11" t="s">
-        <v>59</v>
-      </c>
-      <c r="K11" t="s">
-        <v>59</v>
-      </c>
-      <c r="L11" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16">
+      <c r="N11" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C12" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D12" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="F12" t="s">
-        <v>31</v>
-      </c>
-      <c r="G12" t="s">
-        <v>66</v>
+        <v>53</v>
       </c>
       <c r="H12" t="s">
-        <v>19</v>
+        <v>77</v>
       </c>
       <c r="I12" t="s">
-        <v>72</v>
+        <v>48</v>
       </c>
       <c r="J12" t="s">
-        <v>100</v>
+        <v>71</v>
       </c>
       <c r="K12" t="s">
-        <v>88</v>
+        <v>110</v>
       </c>
       <c r="L12" t="s">
-        <v>59</v>
+        <v>87</v>
       </c>
       <c r="M12" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16">
+        <v>87</v>
+      </c>
+      <c r="N12" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C13" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D13" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F13" t="s">
         <v>54</v>
       </c>
       <c r="G13" t="s">
-        <v>19</v>
+        <v>48</v>
       </c>
       <c r="H13" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I13" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="J13" t="s">
-        <v>59</v>
+        <v>87</v>
       </c>
       <c r="K13" t="s">
-        <v>59</v>
+        <v>0</v>
       </c>
       <c r="L13" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C14" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" t="s">
         <v>11</v>
       </c>
-      <c r="D14" t="s">
-        <v>30</v>
-      </c>
       <c r="E14" t="s">
-        <v>43</v>
-      </c>
-      <c r="F14" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="G14" t="s">
-        <v>67</v>
-      </c>
-      <c r="H14" t="s">
-        <v>80</v>
+        <v>55</v>
       </c>
       <c r="I14" t="s">
-        <v>88</v>
+        <v>66</v>
       </c>
       <c r="J14" t="s">
-        <v>59</v>
+        <v>78</v>
       </c>
       <c r="K14" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16">
+        <v>89</v>
+      </c>
+      <c r="L14" t="s">
+        <v>115</v>
+      </c>
+      <c r="M14" t="s">
+        <v>48</v>
+      </c>
+      <c r="N14" t="s">
+        <v>71</v>
+      </c>
+      <c r="O14" t="s">
+        <v>118</v>
+      </c>
+      <c r="P14" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>90</v>
+      </c>
+      <c r="R14" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C15" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D15" t="s">
-        <v>31</v>
-      </c>
-      <c r="E15" t="s">
-        <v>44</v>
+        <v>27</v>
+      </c>
+      <c r="F15" t="s">
+        <v>55</v>
       </c>
       <c r="G15" t="s">
-        <v>68</v>
+        <v>66</v>
+      </c>
+      <c r="H15" t="s">
+        <v>78</v>
       </c>
       <c r="I15" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="J15" t="s">
-        <v>19</v>
+        <v>103</v>
       </c>
       <c r="K15" t="s">
-        <v>72</v>
+        <v>48</v>
       </c>
       <c r="L15" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="M15" t="s">
         <v>88</v>
       </c>
       <c r="N15" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="O15" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16">
+        <v>90</v>
+      </c>
+      <c r="P15" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16" t="s">
+        <v>1</v>
+      </c>
+      <c r="C16" t="s">
+        <v>12</v>
+      </c>
+      <c r="D16" t="s">
+        <v>28</v>
+      </c>
+      <c r="E16" t="s">
+        <v>42</v>
+      </c>
+      <c r="F16" t="s">
+        <v>48</v>
+      </c>
+      <c r="G16" t="s">
+        <v>67</v>
+      </c>
+      <c r="H16" t="s">
+        <v>79</v>
+      </c>
+      <c r="I16" t="s">
+        <v>90</v>
+      </c>
+      <c r="J16" t="s">
+        <v>104</v>
+      </c>
+      <c r="K16" t="s">
         <v>0</v>
       </c>
-      <c r="C16" t="s">
-        <v>6</v>
-      </c>
-      <c r="D16" t="s">
-        <v>32</v>
-      </c>
-      <c r="E16" t="s">
-        <v>45</v>
-      </c>
-      <c r="F16" t="s">
-        <v>55</v>
-      </c>
-      <c r="G16" t="s">
-        <v>69</v>
-      </c>
-      <c r="H16" t="s">
-        <v>81</v>
-      </c>
-      <c r="I16" t="s">
-        <v>93</v>
-      </c>
-      <c r="J16" t="s">
-        <v>19</v>
-      </c>
-      <c r="K16" t="s">
-        <v>65</v>
-      </c>
-      <c r="L16" t="s">
-        <v>86</v>
-      </c>
-      <c r="M16" t="s">
-        <v>88</v>
-      </c>
-      <c r="N16" t="s">
-        <v>85</v>
-      </c>
-      <c r="O16" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="17" spans="1:16">
+    </row>
+    <row r="17" spans="1:21">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C17" t="s">
         <v>13</v>
       </c>
       <c r="D17" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="E17" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="F17" t="s">
         <v>56</v>
       </c>
-      <c r="G17" t="s">
-        <v>70</v>
-      </c>
       <c r="H17" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="I17" t="s">
-        <v>19</v>
+        <v>48</v>
       </c>
       <c r="J17" t="s">
-        <v>101</v>
+        <v>71</v>
       </c>
       <c r="K17" t="s">
-        <v>61</v>
+        <v>111</v>
       </c>
       <c r="L17" t="s">
-        <v>88</v>
+        <v>0</v>
       </c>
       <c r="M17" t="s">
-        <v>85</v>
+        <v>0</v>
       </c>
       <c r="N17" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="18" spans="1:16">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C18" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D18" t="s">
-        <v>34</v>
+        <v>30</v>
+      </c>
+      <c r="E18" t="s">
+        <v>44</v>
       </c>
       <c r="G18" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="I18" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="J18" t="s">
-        <v>19</v>
+        <v>105</v>
       </c>
       <c r="K18" t="s">
-        <v>87</v>
+        <v>112</v>
       </c>
       <c r="L18" t="s">
-        <v>103</v>
+        <v>116</v>
       </c>
       <c r="M18" t="s">
-        <v>88</v>
+        <v>120</v>
       </c>
       <c r="N18" t="s">
-        <v>59</v>
+        <v>121</v>
       </c>
       <c r="O18" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="19" spans="1:16">
+        <v>122</v>
+      </c>
+      <c r="P18" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>63</v>
+      </c>
+      <c r="R18" t="s">
+        <v>123</v>
+      </c>
+      <c r="S18" t="s">
+        <v>87</v>
+      </c>
+      <c r="T18" t="s">
+        <v>87</v>
+      </c>
+      <c r="U18" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19" t="s">
+        <v>1</v>
+      </c>
+      <c r="C19" t="s">
+        <v>14</v>
+      </c>
+      <c r="D19" t="s">
+        <v>31</v>
+      </c>
+      <c r="F19" t="s">
+        <v>57</v>
+      </c>
+      <c r="H19" t="s">
+        <v>81</v>
+      </c>
+      <c r="I19" t="s">
+        <v>92</v>
+      </c>
+      <c r="J19" t="s">
+        <v>106</v>
+      </c>
+      <c r="K19" t="s">
+        <v>48</v>
+      </c>
+      <c r="L19" t="s">
+        <v>117</v>
+      </c>
+      <c r="M19" t="s">
+        <v>107</v>
+      </c>
+      <c r="N19" t="s">
+        <v>87</v>
+      </c>
+      <c r="O19" t="s">
         <v>0</v>
       </c>
-      <c r="C19" t="s">
-        <v>15</v>
-      </c>
-      <c r="D19" t="s">
-        <v>35</v>
-      </c>
-      <c r="E19" t="s">
-        <v>47</v>
-      </c>
-      <c r="F19" t="s">
-        <v>19</v>
-      </c>
-      <c r="G19" t="s">
-        <v>72</v>
-      </c>
-      <c r="H19" t="s">
-        <v>83</v>
-      </c>
-      <c r="I19" t="s">
-        <v>88</v>
-      </c>
-      <c r="J19" t="s">
-        <v>88</v>
-      </c>
-      <c r="K19" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="20" spans="1:16">
+      <c r="P19" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C20" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="D20" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="E20" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="G20" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="H20" t="s">
-        <v>19</v>
+        <v>82</v>
       </c>
       <c r="I20" t="s">
-        <v>72</v>
+        <v>48</v>
       </c>
       <c r="J20" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="K20" t="s">
-        <v>59</v>
+        <v>113</v>
       </c>
       <c r="L20" t="s">
-        <v>59</v>
+        <v>87</v>
       </c>
       <c r="M20" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="21" spans="1:16">
+        <v>87</v>
+      </c>
+      <c r="N20" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="21" spans="1:21">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21" t="s">
+        <v>1</v>
+      </c>
+      <c r="C21" t="s">
+        <v>15</v>
+      </c>
+      <c r="D21" t="s">
+        <v>33</v>
+      </c>
+      <c r="F21" t="s">
+        <v>46</v>
+      </c>
+      <c r="G21" t="s">
+        <v>70</v>
+      </c>
+      <c r="H21" t="s">
+        <v>48</v>
+      </c>
+      <c r="I21" t="s">
+        <v>93</v>
+      </c>
+      <c r="J21" t="s">
+        <v>107</v>
+      </c>
+      <c r="K21" t="s">
+        <v>87</v>
+      </c>
+      <c r="L21" t="s">
         <v>0</v>
       </c>
-      <c r="C21" t="s">
-        <v>16</v>
-      </c>
-      <c r="D21" t="s">
-        <v>31</v>
-      </c>
-      <c r="E21" t="s">
-        <v>44</v>
-      </c>
-      <c r="G21" t="s">
-        <v>74</v>
-      </c>
-      <c r="I21" t="s">
-        <v>95</v>
-      </c>
-      <c r="J21" t="s">
-        <v>19</v>
-      </c>
-      <c r="K21" t="s">
-        <v>72</v>
-      </c>
-      <c r="L21" t="s">
-        <v>91</v>
-      </c>
       <c r="M21" t="s">
-        <v>88</v>
-      </c>
-      <c r="N21" t="s">
-        <v>88</v>
-      </c>
-      <c r="O21" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="22" spans="1:16">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="22" spans="1:21">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22" t="s">
+        <v>1</v>
+      </c>
+      <c r="C22" t="s">
+        <v>16</v>
+      </c>
+      <c r="D22" t="s">
+        <v>34</v>
+      </c>
+      <c r="F22" t="s">
+        <v>58</v>
+      </c>
+      <c r="H22" t="s">
+        <v>83</v>
+      </c>
+      <c r="I22" t="s">
+        <v>94</v>
+      </c>
+      <c r="J22" t="s">
+        <v>48</v>
+      </c>
+      <c r="K22" t="s">
+        <v>99</v>
+      </c>
+      <c r="L22" t="s">
+        <v>118</v>
+      </c>
+      <c r="M22" t="s">
         <v>0</v>
       </c>
-      <c r="C22" t="s">
-        <v>17</v>
-      </c>
-      <c r="D22" t="s">
-        <v>36</v>
-      </c>
-      <c r="E22" t="s">
-        <v>19</v>
-      </c>
-      <c r="F22" t="s">
-        <v>57</v>
-      </c>
-      <c r="G22" t="s">
-        <v>75</v>
-      </c>
-      <c r="H22" t="s">
-        <v>59</v>
-      </c>
-      <c r="I22" t="s">
-        <v>88</v>
-      </c>
-      <c r="J22" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="23" spans="1:16">
+      <c r="N22" t="s">
+        <v>0</v>
+      </c>
+      <c r="O22" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="23" spans="1:21">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C23" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D23" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F23" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H23" t="s">
         <v>84</v>
       </c>
       <c r="I23" t="s">
-        <v>96</v>
+        <v>48</v>
       </c>
       <c r="J23" t="s">
-        <v>102</v>
+        <v>63</v>
       </c>
       <c r="K23" t="s">
-        <v>19</v>
+        <v>107</v>
       </c>
       <c r="L23" t="s">
-        <v>104</v>
+        <v>87</v>
       </c>
       <c r="M23" t="s">
-        <v>106</v>
+        <v>87</v>
       </c>
       <c r="N23" t="s">
-        <v>59</v>
-      </c>
-      <c r="O23" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="24" spans="1:21">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>1</v>
+      </c>
+      <c r="C24" t="s">
+        <v>8</v>
+      </c>
+      <c r="D24" t="s">
+        <v>36</v>
+      </c>
+      <c r="E24" t="s">
+        <v>46</v>
+      </c>
+      <c r="F24" t="s">
+        <v>48</v>
+      </c>
+      <c r="G24" t="s">
+        <v>71</v>
+      </c>
+      <c r="H24" t="s">
         <v>85</v>
       </c>
-      <c r="P23" t="s">
-        <v>85</v>
+      <c r="I24" t="s">
+        <v>87</v>
+      </c>
+      <c r="J24" t="s">
+        <v>87</v>
+      </c>
+      <c r="K24" t="s">
+        <v>87</v>
       </c>
     </row>
   </sheetData>
